--- a/public/uploads/schedule_template.xlsx
+++ b/public/uploads/schedule_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\Dropbox\My PC (LAPTOP-3VGDKNQI)\Downloads\Newfolder_1621336937365\Newfolder\DBManagement\public\uploads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C8A46D-F76A-41DF-8705-B19C6766A635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="1" r:id="rId1"/>
@@ -20,12 +26,23 @@
     <definedName name="Schedule1">Stages!$B$3:$B$5</definedName>
     <definedName name="Schedule2">Stages!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>First Name</t>
   </si>
@@ -163,15 +180,54 @@
   </si>
   <si>
     <t>Agenda 1</t>
+  </si>
+  <si>
+    <t>CHAD</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>example.com</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Aditya Ch</t>
+  </si>
+  <si>
+    <t>Guest User</t>
+  </si>
+  <si>
+    <t>New Guest</t>
+  </si>
+  <si>
+    <t>Latest Guest</t>
+  </si>
+  <si>
+    <t>One More</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                      </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="167" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -224,8 +280,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -236,6 +292,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -284,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +376,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,6 +428,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,25 +620,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="3" max="3" width="34.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -578,8 +671,20 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -589,8 +694,20 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -600,8 +717,20 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -611,8 +740,20 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -621,16 +762,28 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId6"/>
@@ -638,24 +791,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -675,7 +828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -691,8 +844,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -708,8 +864,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -725,185 +884,188 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="3"/>
     </row>
   </sheetData>
@@ -913,14 +1075,14 @@
     </dataRefs>
   </dataConsolidate>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E26">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E26" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>0</formula1>
       <formula2>59</formula2>
     </dataValidation>
@@ -930,24 +1092,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +1165,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1013,140 +1175,179 @@
       <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="4">
+        <f>TIME(10,10,10)</f>
+        <v>0.42372685185185183</v>
+      </c>
+      <c r="E2" s="4">
+        <f>TIME(12,12,12)</f>
+        <v>0.50847222222222221</v>
+      </c>
+      <c r="F2" s="4">
+        <f>TIME(8,8,8)</f>
+        <v>0.33898148148148149</v>
+      </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4">
+        <f>TIME(10,10,10)</f>
+        <v>0.42372685185185183</v>
+      </c>
+      <c r="E3" s="4">
+        <f>TIME(12,12,12)</f>
+        <v>0.50847222222222221</v>
+      </c>
+      <c r="F3" s="4">
+        <f>TIME(8,8,8)</f>
+        <v>0.33898148148148149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:R25" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Guests</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>_15_05_2021</formula1>
     </dataValidation>
   </dataValidations>
@@ -1154,7 +1355,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Stages!A2:A25</xm:f>
           </x14:formula1>
